--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_16.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>216471.4560535191</v>
+        <v>216471.4560535193</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>13224770.54589216</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18797637.3142638</v>
+        <v>18545640.60324688</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4936904.852141263</v>
+        <v>5073940.754122714</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.848256208035249</v>
+      </c>
+      <c r="G2" t="n">
         <v>49.79500702712468</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="H2" t="n">
         <v>49.79500702712468</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.848256208035243</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,76 +735,76 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>43.85944218949141</v>
+      </c>
+      <c r="V3" t="n">
         <v>49.79500702712468</v>
       </c>
-      <c r="C3" t="n">
+      <c r="W3" t="n">
         <v>49.79500702712468</v>
       </c>
-      <c r="D3" t="n">
-        <v>43.8594421894914</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="Y3" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -905,52 +905,52 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>23.65357118422324</v>
+      </c>
+      <c r="R5" t="n">
         <v>92.6649492891022</v>
       </c>
-      <c r="G5" t="n">
-        <v>81.61928733384123</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="S5" t="n">
         <v>92.6649492891022</v>
       </c>
-      <c r="I5" t="n">
+      <c r="T5" t="n">
         <v>92.6649492891022</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>57.96571614961795</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>65.63472101605001</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>15.98456631779121</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="W6" t="n">
         <v>92.6649492891022</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
     </row>
     <row r="7">
@@ -1142,55 +1142,55 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>98.74883103803275</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>15.61164031771682</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="H8" t="n">
+      <c r="T8" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="I8" t="n">
+      <c r="U8" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>83.13719072031593</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>102.3448132540521</v>
+        <v>89.42651845964522</v>
       </c>
       <c r="I9" t="n">
-        <v>64.26286446312977</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>30.08282103867671</v>
@@ -1257,19 +1257,19 @@
         <v>9.256558775821418</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.095592888813</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>4.914433631276501</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1315,13 +1315,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>3.625377488803587</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>3.625377488803587</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>116.8405921356976</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y11" t="n">
-        <v>39.70122005612006</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="12">
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>99.24439349474397</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1464,10 +1464,10 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>71.46512258325551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1567,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>18.10760906709382</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>34.10833718734084</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>153.8072380324131</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>165.1725371760946</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="15">
@@ -1692,22 +1692,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>49.18761930899262</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,25 +1731,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>165.1725371760947</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>52.21594625443454</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="D17" t="n">
+      <c r="F17" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>39.70122005611979</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>15.40229248514485</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="U18" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X18" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,76 +2078,76 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>165.1725371760946</v>
+      </c>
+      <c r="C20" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
+      <c r="Y20" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="X20" t="n">
-        <v>165.1725371760945</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>85.36332079774496</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2208,25 +2208,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>13.45644170423142</v>
+      </c>
+      <c r="Y21" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2251,49 +2251,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>52.21594625443443</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E23" t="n">
-        <v>6.396723986041487</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F23" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>187.52558716632</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>15.40229248514485</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>165.1725371760946</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V24" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X24" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>187.5255871663199</v>
       </c>
       <c r="H26" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2615,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>88.09081815943081</v>
+        <v>165.1725371760945</v>
       </c>
     </row>
     <row r="27">
@@ -2685,19 +2685,19 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U27" t="n">
-        <v>187.5255871663199</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="V27" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="W27" t="n">
-        <v>165.1725371760946</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X27" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>52.21594625443443</v>
+        <v>52.21594625443434</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>77.08171901666378</v>
       </c>
       <c r="S29" t="n">
-        <v>158.7758131900531</v>
+        <v>88.09081815943075</v>
       </c>
       <c r="T29" t="n">
-        <v>116.8405921356976</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="30">
@@ -2868,16 +2868,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>27.95772738249202</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2922,19 +2922,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>52.21594625443434</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>6.396723986041489</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3086,10 +3086,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="W32" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>187.5255871663199</v>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>52.21594625443434</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>165.1725371760945</v>
+      </c>
+      <c r="E35" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="F35" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="U36" t="n">
         <v>187.5255871663199</v>
@@ -3408,7 +3408,7 @@
         <v>187.5255871663199</v>
       </c>
       <c r="X36" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3445,10 +3445,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>38.11163636040591</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>150.1450882057757</v>
+      </c>
+      <c r="G38" t="n">
         <v>187.5255871663198</v>
       </c>
-      <c r="C38" t="n">
+      <c r="H38" t="n">
         <v>187.5255871663198</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>187.5255871663198</v>
@@ -3645,10 +3645,10 @@
         <v>187.5255871663198</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="Y39" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>52.21594625443434</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="D41" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,10 +3785,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>88.09081815943087</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,19 +3816,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>83.4174700168312</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3937,13 +3937,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>34.10833718734057</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>52.21594625443431</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3983,13 +3983,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="F44" t="n">
-        <v>165.1725371760946</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="G44" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>187.52558716632</v>
+        <v>165.1725371760944</v>
       </c>
     </row>
     <row r="45">
@@ -4053,16 +4053,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>32.5445597894599</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>7.527456720693607</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4110,16 +4110,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W45" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X45" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>52.21594625443434</v>
+        <v>52.21594625443423</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>56.14851292091738</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="C2" t="n">
-        <v>56.14851292091738</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="D2" t="n">
-        <v>5.850526024831836</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="E2" t="n">
-        <v>5.850526024831836</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="F2" t="n">
-        <v>3.983600562169975</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="G2" t="n">
-        <v>3.983600562169975</v>
+        <v>104.579574354341</v>
       </c>
       <c r="H2" t="n">
-        <v>3.983600562169975</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="I2" t="n">
         <v>3.983600562169975</v>
@@ -4367,13 +4367,13 @@
         <v>156.7444867130885</v>
       </c>
       <c r="W2" t="n">
-        <v>106.4464998170029</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="X2" t="n">
-        <v>106.4464998170029</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="Y2" t="n">
-        <v>106.4464998170029</v>
+        <v>156.7444867130885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.58405431632764</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="C3" t="n">
-        <v>48.2860674202421</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="D3" t="n">
         <v>3.983600562169975</v>
@@ -4422,7 +4422,7 @@
         <v>148.9002556310311</v>
       </c>
       <c r="O3" t="n">
-        <v>170.4401317516711</v>
+        <v>198.1973125878845</v>
       </c>
       <c r="P3" t="n">
         <v>199.1800281084987</v>
@@ -4440,19 +4440,19 @@
         <v>199.1800281084987</v>
       </c>
       <c r="U3" t="n">
-        <v>199.1800281084987</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="V3" t="n">
-        <v>199.1800281084987</v>
+        <v>104.579574354341</v>
       </c>
       <c r="W3" t="n">
-        <v>199.1800281084987</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="X3" t="n">
-        <v>199.1800281084987</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="Y3" t="n">
-        <v>148.8820412124132</v>
+        <v>3.983600562169975</v>
       </c>
     </row>
     <row r="4">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C5" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D5" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E5" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F5" t="n">
-        <v>277.0588382785278</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G5" t="n">
-        <v>194.6151136988902</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H5" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I5" t="n">
         <v>7.413195943128176</v>
@@ -4571,10 +4571,10 @@
         <v>21.18357364821451</v>
       </c>
       <c r="L5" t="n">
-        <v>75.16870670940369</v>
+        <v>75.16870670940374</v>
       </c>
       <c r="M5" t="n">
-        <v>166.9070065056149</v>
+        <v>166.9070065056148</v>
       </c>
       <c r="N5" t="n">
         <v>258.6453063018261</v>
@@ -4586,31 +4586,31 @@
         <v>370.6597971564088</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.6597971564088</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="R5" t="n">
-        <v>370.6597971564088</v>
+        <v>253.1663421328477</v>
       </c>
       <c r="S5" t="n">
-        <v>370.6597971564088</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="T5" t="n">
-        <v>370.6597971564088</v>
+        <v>65.96442437708571</v>
       </c>
       <c r="U5" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="V5" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="W5" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="X5" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y5" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>277.0588382785278</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C6" t="n">
-        <v>183.4578794006468</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D6" t="n">
-        <v>183.4578794006468</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E6" t="n">
-        <v>183.4578794006468</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F6" t="n">
-        <v>183.4578794006468</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G6" t="n">
-        <v>183.4578794006468</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H6" t="n">
-        <v>89.85692052276578</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I6" t="n">
-        <v>23.55922252675566</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J6" t="n">
         <v>7.413195943128176</v>
       </c>
       <c r="K6" t="n">
-        <v>28.29609765201163</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L6" t="n">
-        <v>102.6982772648967</v>
+        <v>81.81537555601327</v>
       </c>
       <c r="M6" t="n">
-        <v>194.4365770611079</v>
+        <v>173.5536753522244</v>
       </c>
       <c r="N6" t="n">
-        <v>286.1748768573191</v>
+        <v>265.2919751484357</v>
       </c>
       <c r="O6" t="n">
         <v>317.2247932514005</v>
@@ -4680,16 +4680,16 @@
         <v>370.6597971564088</v>
       </c>
       <c r="V6" t="n">
-        <v>370.6597971564088</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="W6" t="n">
-        <v>277.0588382785278</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="X6" t="n">
-        <v>277.0588382785278</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="Y6" t="n">
-        <v>277.0588382785278</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="7">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>448.4506404996948</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="C8" t="n">
-        <v>448.4506404996948</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="D8" t="n">
-        <v>448.4506404996948</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="E8" t="n">
-        <v>448.4506404996948</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="F8" t="n">
-        <v>348.704346521884</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="G8" t="n">
-        <v>235.4592352845873</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H8" t="n">
-        <v>122.2141240472906</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I8" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J8" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K8" t="n">
-        <v>32.11753523687545</v>
+        <v>32.11753523687554</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773399</v>
+        <v>97.73708609773416</v>
       </c>
       <c r="M8" t="n">
         <v>202.4209174083929</v>
       </c>
       <c r="N8" t="n">
-        <v>313.4124509320676</v>
+        <v>313.4124509320674</v>
       </c>
       <c r="O8" t="n">
-        <v>404.8833474416799</v>
+        <v>404.8833474416797</v>
       </c>
       <c r="P8" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q8" t="n">
-        <v>448.4506404996948</v>
+        <v>432.6813068454352</v>
       </c>
       <c r="R8" t="n">
-        <v>448.4506404996948</v>
+        <v>432.6813068454352</v>
       </c>
       <c r="S8" t="n">
-        <v>448.4506404996948</v>
+        <v>319.4361956081386</v>
       </c>
       <c r="T8" t="n">
-        <v>448.4506404996948</v>
+        <v>206.191084370842</v>
       </c>
       <c r="U8" t="n">
-        <v>448.4506404996948</v>
+        <v>92.94597313354534</v>
       </c>
       <c r="V8" t="n">
-        <v>448.4506404996948</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="W8" t="n">
-        <v>448.4506404996948</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="X8" t="n">
-        <v>448.4506404996948</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="Y8" t="n">
-        <v>448.4506404996948</v>
+        <v>8.969012809993892</v>
       </c>
     </row>
     <row r="9">
@@ -4857,31 +4857,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>320.8913955178548</v>
+        <v>129.6855173537534</v>
       </c>
       <c r="C9" t="n">
-        <v>320.8913955178548</v>
+        <v>129.6855173537534</v>
       </c>
       <c r="D9" t="n">
-        <v>207.6462842805581</v>
+        <v>129.6855173537534</v>
       </c>
       <c r="E9" t="n">
-        <v>207.6462842805581</v>
+        <v>129.6855173537534</v>
       </c>
       <c r="F9" t="n">
-        <v>207.6462842805581</v>
+        <v>129.6855173537534</v>
       </c>
       <c r="G9" t="n">
-        <v>207.6462842805581</v>
+        <v>129.6855173537534</v>
       </c>
       <c r="H9" t="n">
-        <v>104.2676850340409</v>
+        <v>39.35570072784915</v>
       </c>
       <c r="I9" t="n">
-        <v>39.35570072784916</v>
+        <v>39.35570072784915</v>
       </c>
       <c r="J9" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K9" t="n">
         <v>36.22166818534551</v>
@@ -4890,43 +4890,43 @@
         <v>119.1887676792232</v>
       </c>
       <c r="M9" t="n">
-        <v>176.4394396403952</v>
+        <v>230.1803012028977</v>
       </c>
       <c r="N9" t="n">
-        <v>287.4309731640697</v>
+        <v>287.4309731640694</v>
       </c>
       <c r="O9" t="n">
-        <v>387.4830745953196</v>
+        <v>387.4830745953194</v>
       </c>
       <c r="P9" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q9" t="n">
-        <v>439.1005811301782</v>
+        <v>439.100581130178</v>
       </c>
       <c r="R9" t="n">
-        <v>439.1005811301782</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="S9" t="n">
-        <v>439.1005811301782</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="T9" t="n">
-        <v>434.1365067551515</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="U9" t="n">
-        <v>434.1365067551515</v>
+        <v>242.93062859105</v>
       </c>
       <c r="V9" t="n">
-        <v>434.1365067551515</v>
+        <v>129.6855173537534</v>
       </c>
       <c r="W9" t="n">
-        <v>434.1365067551515</v>
+        <v>129.6855173537534</v>
       </c>
       <c r="X9" t="n">
-        <v>434.1365067551515</v>
+        <v>129.6855173537534</v>
       </c>
       <c r="Y9" t="n">
-        <v>434.1365067551515</v>
+        <v>129.6855173537534</v>
       </c>
     </row>
     <row r="10">
@@ -4963,13 +4963,13 @@
         <v>12.63101027343186</v>
       </c>
       <c r="K10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="L10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="M10" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="N10" t="n">
         <v>12.63101027343186</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>710.0001061843509</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C11" t="n">
-        <v>710.0001061843509</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D11" t="n">
-        <v>710.0001061843509</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E11" t="n">
-        <v>710.0001061843509</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F11" t="n">
-        <v>520.580321167866</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G11" t="n">
-        <v>331.1605361513812</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H11" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I11" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J11" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K11" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L11" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M11" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N11" t="n">
-        <v>509.4952041123831</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O11" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P11" t="n">
-        <v>734.461172602027</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q11" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R11" t="n">
-        <v>750.1023486652803</v>
+        <v>672.2420264262254</v>
       </c>
       <c r="S11" t="n">
-        <v>750.1023486652803</v>
+        <v>511.8624171433435</v>
       </c>
       <c r="T11" t="n">
-        <v>750.1023486652803</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="U11" t="n">
-        <v>750.1023486652803</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="V11" t="n">
-        <v>750.1023486652803</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="W11" t="n">
-        <v>750.1023486652803</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="X11" t="n">
-        <v>750.1023486652803</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="Y11" t="n">
-        <v>710.0001061843509</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>299.0757861239715</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="C12" t="n">
-        <v>299.0757861239715</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="D12" t="n">
-        <v>299.0757861239715</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="E12" t="n">
-        <v>299.0757861239715</v>
+        <v>460.4357015328919</v>
       </c>
       <c r="F12" t="n">
-        <v>152.5412281508565</v>
+        <v>313.9011435597769</v>
       </c>
       <c r="G12" t="n">
-        <v>15.0020469733056</v>
+        <v>176.361962382226</v>
       </c>
       <c r="H12" t="n">
-        <v>15.0020469733056</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="I12" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J12" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K12" t="n">
-        <v>67.1341887702422</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L12" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M12" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N12" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O12" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P12" t="n">
-        <v>739.5989987017068</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q12" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R12" t="n">
-        <v>677.9153561569414</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S12" t="n">
-        <v>677.9153561569414</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T12" t="n">
-        <v>677.9153561569414</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="U12" t="n">
-        <v>677.9153561569414</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="V12" t="n">
-        <v>677.9153561569414</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="W12" t="n">
-        <v>488.4955711404564</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="X12" t="n">
-        <v>299.0757861239715</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="Y12" t="n">
-        <v>299.0757861239715</v>
+        <v>560.6825636487949</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C13" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D13" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E13" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F13" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="G13" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="H13" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="I13" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J13" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K13" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L13" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M13" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N13" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O13" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P13" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R13" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S13" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T13" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U13" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V13" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W13" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X13" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>583.2614020227604</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C14" t="n">
-        <v>583.2614020227604</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D14" t="n">
-        <v>393.8416170062754</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E14" t="n">
-        <v>393.8416170062754</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F14" t="n">
-        <v>204.4218319897905</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G14" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H14" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I14" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J14" t="n">
-        <v>21.03371160678501</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K14" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L14" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M14" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N14" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O14" t="n">
-        <v>649.4845259985588</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P14" t="n">
-        <v>734.4611726020271</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q14" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R14" t="n">
-        <v>750.1023486652803</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="S14" t="n">
-        <v>750.1023486652803</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="T14" t="n">
-        <v>750.1023486652803</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="U14" t="n">
-        <v>750.1023486652803</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="V14" t="n">
-        <v>750.1023486652803</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="W14" t="n">
-        <v>583.2614020227604</v>
+        <v>549.2024635036621</v>
       </c>
       <c r="X14" t="n">
-        <v>583.2614020227604</v>
+        <v>359.7826784871773</v>
       </c>
       <c r="Y14" t="n">
-        <v>583.2614020227604</v>
+        <v>170.3628934706926</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15.0020469733056</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="C15" t="n">
-        <v>15.0020469733056</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="D15" t="n">
-        <v>15.0020469733056</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="E15" t="n">
-        <v>15.0020469733056</v>
+        <v>475.9702682325468</v>
       </c>
       <c r="F15" t="n">
-        <v>15.0020469733056</v>
+        <v>329.4357102594318</v>
       </c>
       <c r="G15" t="n">
-        <v>15.0020469733056</v>
+        <v>191.8965290818809</v>
       </c>
       <c r="H15" t="n">
-        <v>15.0020469733056</v>
+        <v>90.0361681215378</v>
       </c>
       <c r="I15" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="J15" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K15" t="n">
-        <v>67.13418877024218</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L15" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M15" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N15" t="n">
-        <v>512.5000587546604</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O15" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P15" t="n">
-        <v>739.5989987017068</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q15" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R15" t="n">
-        <v>750.1023486652803</v>
+        <v>676.9378076264279</v>
       </c>
       <c r="S15" t="n">
-        <v>750.1023486652803</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="T15" t="n">
-        <v>750.1023486652803</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="U15" t="n">
-        <v>560.6825636487954</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="V15" t="n">
-        <v>371.2627786323105</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="W15" t="n">
-        <v>181.8429936158255</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="X15" t="n">
-        <v>15.0020469733056</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.0020469733056</v>
+        <v>525.6547321810242</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C16" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D16" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E16" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F16" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="G16" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="H16" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="I16" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="J16" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K16" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L16" t="n">
-        <v>27.0396705623018</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M16" t="n">
-        <v>42.98993985170723</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N16" t="n">
-        <v>66.41847329396344</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O16" t="n">
-        <v>67.74542702829</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P16" t="n">
-        <v>67.74542702829</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.74542702829</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R16" t="n">
-        <v>67.74542702829</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S16" t="n">
-        <v>67.74542702829</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T16" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U16" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V16" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W16" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X16" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>583.2614020227599</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="C17" t="n">
-        <v>393.8416170062751</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="D17" t="n">
-        <v>204.4218319897903</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="E17" t="n">
-        <v>204.4218319897903</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="F17" t="n">
-        <v>204.4218319897903</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="G17" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="H17" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I17" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="J17" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678497</v>
       </c>
       <c r="K17" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058947</v>
       </c>
       <c r="L17" t="n">
         <v>191.8743094079184</v>
       </c>
       <c r="M17" t="n">
-        <v>347.1218190644752</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N17" t="n">
-        <v>509.4952041123827</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O17" t="n">
         <v>649.4845259985582</v>
@@ -5595,16 +5595,16 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K18" t="n">
-        <v>67.13418877024216</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L18" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M18" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N18" t="n">
-        <v>512.5000587546604</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O18" t="n">
         <v>649.2101578476347</v>
@@ -5616,10 +5616,10 @@
         <v>750.1023486652796</v>
       </c>
       <c r="R18" t="n">
-        <v>734.5444774681636</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S18" t="n">
-        <v>583.2614020227599</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T18" t="n">
         <v>583.2614020227599</v>
@@ -5628,13 +5628,13 @@
         <v>393.8416170062751</v>
       </c>
       <c r="V18" t="n">
-        <v>393.8416170062751</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="W18" t="n">
-        <v>393.8416170062751</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X18" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y18" t="n">
         <v>15.00204697330559</v>
@@ -5677,31 +5677,31 @@
         <v>15.00204697330559</v>
       </c>
       <c r="L19" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M19" t="n">
-        <v>42.98993985170722</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N19" t="n">
-        <v>66.41847329396343</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O19" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P19" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R19" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S19" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T19" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U19" t="n">
         <v>15.00204697330559</v>
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>204.4218319897903</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="C20" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D20" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E20" t="n">
         <v>15.00204697330559</v>
@@ -5750,10 +5750,10 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J20" t="n">
-        <v>21.03371160678492</v>
+        <v>21.03371160678498</v>
       </c>
       <c r="K20" t="n">
-        <v>80.81213159058942</v>
+        <v>80.81213159058947</v>
       </c>
       <c r="L20" t="n">
         <v>191.8743094079184</v>
@@ -5768,34 +5768,34 @@
         <v>649.4845259985582</v>
       </c>
       <c r="P20" t="n">
-        <v>734.4611726020264</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q20" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R20" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S20" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T20" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U20" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V20" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="W20" t="n">
-        <v>560.6825636487948</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="X20" t="n">
-        <v>393.8416170062751</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="Y20" t="n">
-        <v>393.8416170062751</v>
+        <v>371.2627786323102</v>
       </c>
     </row>
     <row r="21">
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>409.3994882033911</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="C21" t="n">
-        <v>323.1739116400124</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D21" t="n">
-        <v>174.2395019787611</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E21" t="n">
         <v>15.00204697330559</v>
@@ -5838,43 +5838,43 @@
         <v>183.5548280772649</v>
       </c>
       <c r="M21" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N21" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O21" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P21" t="n">
-        <v>739.5989987017061</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q21" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R21" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S21" t="n">
-        <v>598.8192732198759</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T21" t="n">
-        <v>598.8192732198759</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U21" t="n">
-        <v>598.8192732198759</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="V21" t="n">
-        <v>409.3994882033911</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="W21" t="n">
-        <v>409.3994882033911</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="X21" t="n">
-        <v>409.3994882033911</v>
+        <v>547.0901982909854</v>
       </c>
       <c r="Y21" t="n">
-        <v>409.3994882033911</v>
+        <v>357.6704132745007</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C22" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D22" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E22" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F22" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G22" t="n">
         <v>15.00204697330559</v>
@@ -5941,19 +5941,19 @@
         <v>67.74542702828987</v>
       </c>
       <c r="U22" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V22" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W22" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X22" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y22" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>400.3029543659131</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="C23" t="n">
-        <v>400.3029543659131</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="D23" t="n">
-        <v>400.3029543659131</v>
+        <v>371.2627786323102</v>
       </c>
       <c r="E23" t="n">
-        <v>393.8416170062752</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="F23" t="n">
-        <v>204.4218319897904</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="G23" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H23" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I23" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J23" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678497</v>
       </c>
       <c r="K23" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058946</v>
       </c>
       <c r="L23" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M23" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N23" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O23" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985583</v>
       </c>
       <c r="P23" t="n">
         <v>734.4611726020266</v>
@@ -6014,25 +6014,25 @@
         <v>750.1023486652798</v>
       </c>
       <c r="S23" t="n">
-        <v>589.7227393823979</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T23" t="n">
-        <v>589.7227393823979</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U23" t="n">
-        <v>589.7227393823979</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V23" t="n">
-        <v>589.7227393823979</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="W23" t="n">
-        <v>589.7227393823979</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="X23" t="n">
-        <v>400.3029543659131</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="Y23" t="n">
-        <v>400.3029543659131</v>
+        <v>750.1023486652797</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C24" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D24" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E24" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F24" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G24" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H24" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I24" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J24" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K24" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L24" t="n">
         <v>183.5548280772649</v>
@@ -6081,25 +6081,25 @@
         <v>512.5000587546601</v>
       </c>
       <c r="O24" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P24" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q24" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R24" t="n">
-        <v>750.1023486652798</v>
+        <v>734.5444774681637</v>
       </c>
       <c r="S24" t="n">
-        <v>750.1023486652798</v>
+        <v>583.26140202276</v>
       </c>
       <c r="T24" t="n">
-        <v>750.1023486652798</v>
+        <v>583.26140202276</v>
       </c>
       <c r="U24" t="n">
-        <v>583.26140202276</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="V24" t="n">
         <v>393.8416170062752</v>
@@ -6108,10 +6108,10 @@
         <v>204.4218319897904</v>
       </c>
       <c r="X24" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y24" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C25" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D25" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E25" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F25" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G25" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H25" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I25" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J25" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K25" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L25" t="n">
         <v>27.03967056230176</v>
@@ -6203,19 +6203,19 @@
         <v>393.8416170062752</v>
       </c>
       <c r="C26" t="n">
-        <v>393.8416170062752</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="D26" t="n">
-        <v>393.8416170062752</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="E26" t="n">
-        <v>393.8416170062752</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="F26" t="n">
-        <v>393.8416170062752</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="G26" t="n">
-        <v>204.4218319897904</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H26" t="n">
         <v>15.00204697330559</v>
@@ -6224,10 +6224,10 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J26" t="n">
-        <v>21.03371160678495</v>
+        <v>21.03371160678498</v>
       </c>
       <c r="K26" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058947</v>
       </c>
       <c r="L26" t="n">
         <v>191.8743094079184</v>
@@ -6248,28 +6248,28 @@
         <v>750.1023486652797</v>
       </c>
       <c r="R26" t="n">
-        <v>672.2420264262254</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S26" t="n">
-        <v>672.2420264262254</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T26" t="n">
-        <v>672.2420264262254</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U26" t="n">
-        <v>672.2420264262254</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V26" t="n">
-        <v>672.2420264262254</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="W26" t="n">
-        <v>482.8222414097406</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="X26" t="n">
-        <v>482.8222414097406</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="Y26" t="n">
-        <v>393.8416170062752</v>
+        <v>583.26140202276</v>
       </c>
     </row>
     <row r="27">
@@ -6333,16 +6333,16 @@
         <v>750.1023486652797</v>
       </c>
       <c r="T27" t="n">
-        <v>750.1023486652797</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="U27" t="n">
-        <v>560.6825636487949</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="V27" t="n">
-        <v>371.2627786323102</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="W27" t="n">
-        <v>204.4218319897904</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X27" t="n">
         <v>15.00204697330559</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="C28" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="D28" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="E28" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="F28" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="G28" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="H28" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="I28" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="J28" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="K28" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="L28" t="n">
-        <v>27.03967056230176</v>
+        <v>709.3965921992917</v>
       </c>
       <c r="M28" t="n">
-        <v>42.98993985170716</v>
+        <v>725.3468614886971</v>
       </c>
       <c r="N28" t="n">
-        <v>66.41847329396334</v>
+        <v>748.7753949309532</v>
       </c>
       <c r="O28" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="P28" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R28" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S28" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T28" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U28" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V28" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="W28" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="X28" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="Y28" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652797</v>
       </c>
     </row>
     <row r="29">
@@ -6461,19 +6461,19 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J29" t="n">
-        <v>21.03371160678495</v>
+        <v>21.03371160678492</v>
       </c>
       <c r="K29" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058942</v>
       </c>
       <c r="L29" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M29" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N29" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O29" t="n">
         <v>649.4845259985582</v>
@@ -6488,22 +6488,22 @@
         <v>672.2420264262254</v>
       </c>
       <c r="S29" t="n">
-        <v>511.8624171433435</v>
+        <v>583.26140202276</v>
       </c>
       <c r="T29" t="n">
-        <v>393.8416170062752</v>
+        <v>583.26140202276</v>
       </c>
       <c r="U29" t="n">
-        <v>393.8416170062752</v>
+        <v>583.26140202276</v>
       </c>
       <c r="V29" t="n">
-        <v>393.8416170062752</v>
+        <v>583.26140202276</v>
       </c>
       <c r="W29" t="n">
-        <v>393.8416170062752</v>
+        <v>583.26140202276</v>
       </c>
       <c r="X29" t="n">
-        <v>393.8416170062752</v>
+        <v>583.26140202276</v>
       </c>
       <c r="Y29" t="n">
         <v>393.8416170062752</v>
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>392.4672266287269</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C30" t="n">
-        <v>218.0141973475999</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D30" t="n">
-        <v>189.774068678416</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E30" t="n">
-        <v>30.53661367296054</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F30" t="n">
-        <v>30.53661367296054</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G30" t="n">
-        <v>30.53661367296054</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H30" t="n">
-        <v>30.53661367296054</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I30" t="n">
-        <v>30.53661367296054</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J30" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K30" t="n">
-        <v>67.13418877024213</v>
+        <v>67.13418877024216</v>
       </c>
       <c r="L30" t="n">
         <v>183.5548280772649</v>
@@ -6570,22 +6570,22 @@
         <v>750.1023486652797</v>
       </c>
       <c r="T30" t="n">
-        <v>560.6825636487949</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U30" t="n">
         <v>560.6825636487949</v>
       </c>
       <c r="V30" t="n">
-        <v>560.6825636487949</v>
+        <v>371.2627786323102</v>
       </c>
       <c r="W30" t="n">
-        <v>560.6825636487949</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="X30" t="n">
-        <v>560.6825636487949</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y30" t="n">
-        <v>560.6825636487949</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C31" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D31" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E31" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F31" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G31" t="n">
-        <v>697.3589686102955</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H31" t="n">
-        <v>697.3589686102955</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I31" t="n">
-        <v>697.3589686102955</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J31" t="n">
-        <v>697.3589686102955</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K31" t="n">
-        <v>697.3589686102955</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L31" t="n">
-        <v>709.3965921992917</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M31" t="n">
-        <v>725.3468614886971</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N31" t="n">
-        <v>748.7753949309532</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O31" t="n">
-        <v>750.1023486652797</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P31" t="n">
-        <v>750.1023486652797</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q31" t="n">
-        <v>750.1023486652797</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R31" t="n">
-        <v>750.1023486652797</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S31" t="n">
-        <v>750.1023486652797</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T31" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U31" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V31" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W31" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X31" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y31" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>21.46338433294346</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="C32" t="n">
-        <v>21.46338433294346</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="D32" t="n">
-        <v>21.46338433294346</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="E32" t="n">
-        <v>21.46338433294346</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="F32" t="n">
-        <v>21.46338433294346</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="G32" t="n">
-        <v>21.46338433294346</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H32" t="n">
-        <v>21.46338433294346</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I32" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="J32" t="n">
-        <v>21.03371160678498</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K32" t="n">
-        <v>80.81213159058947</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L32" t="n">
         <v>191.8743094079184</v>
@@ -6725,25 +6725,25 @@
         <v>750.1023486652797</v>
       </c>
       <c r="S32" t="n">
-        <v>589.7227393823978</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T32" t="n">
-        <v>589.7227393823978</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U32" t="n">
-        <v>589.7227393823978</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V32" t="n">
-        <v>589.7227393823978</v>
+        <v>583.26140202276</v>
       </c>
       <c r="W32" t="n">
-        <v>400.302954365913</v>
+        <v>583.26140202276</v>
       </c>
       <c r="X32" t="n">
-        <v>210.8831693494282</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="Y32" t="n">
-        <v>210.8831693494282</v>
+        <v>393.8416170062752</v>
       </c>
     </row>
     <row r="33">
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="C33" t="n">
         <v>15.00204697330559</v>
@@ -6780,7 +6780,7 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K33" t="n">
-        <v>67.13418877024216</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L33" t="n">
         <v>183.5548280772649</v>
@@ -6807,22 +6807,22 @@
         <v>750.1023486652797</v>
       </c>
       <c r="T33" t="n">
-        <v>583.26140202276</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U33" t="n">
-        <v>583.26140202276</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V33" t="n">
-        <v>583.26140202276</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="W33" t="n">
-        <v>393.8416170062752</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="X33" t="n">
-        <v>204.4218319897904</v>
+        <v>371.2627786323102</v>
       </c>
       <c r="Y33" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158254</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>697.3589686102955</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C34" t="n">
-        <v>697.3589686102955</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D34" t="n">
-        <v>697.3589686102955</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E34" t="n">
-        <v>697.3589686102955</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F34" t="n">
-        <v>697.3589686102955</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G34" t="n">
-        <v>697.3589686102955</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H34" t="n">
-        <v>697.3589686102955</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I34" t="n">
-        <v>697.3589686102955</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J34" t="n">
-        <v>697.3589686102955</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K34" t="n">
-        <v>697.3589686102955</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L34" t="n">
-        <v>709.3965921992917</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M34" t="n">
-        <v>725.3468614886971</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N34" t="n">
-        <v>748.7753949309532</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O34" t="n">
-        <v>750.1023486652797</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P34" t="n">
-        <v>750.1023486652797</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q34" t="n">
-        <v>697.3589686102955</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R34" t="n">
-        <v>697.3589686102955</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S34" t="n">
-        <v>697.3589686102955</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T34" t="n">
-        <v>697.3589686102955</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U34" t="n">
-        <v>697.3589686102955</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V34" t="n">
-        <v>697.3589686102955</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W34" t="n">
-        <v>697.3589686102955</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X34" t="n">
-        <v>697.3589686102955</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y34" t="n">
-        <v>697.3589686102955</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>204.4218319897903</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="C35" t="n">
-        <v>204.4218319897903</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="D35" t="n">
-        <v>15.00204697330559</v>
+        <v>583.26140202276</v>
       </c>
       <c r="E35" t="n">
-        <v>15.00204697330559</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="F35" t="n">
-        <v>15.00204697330559</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="G35" t="n">
         <v>15.00204697330559</v>
@@ -6935,52 +6935,52 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J35" t="n">
-        <v>21.03371160678473</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K35" t="n">
-        <v>80.81213159058922</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L35" t="n">
-        <v>191.8743094079182</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M35" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N35" t="n">
-        <v>509.4952041123827</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O35" t="n">
-        <v>649.4845259985581</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P35" t="n">
-        <v>734.4611726020264</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q35" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R35" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S35" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T35" t="n">
-        <v>583.2614020227599</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U35" t="n">
-        <v>583.2614020227599</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V35" t="n">
-        <v>583.2614020227599</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="W35" t="n">
-        <v>583.2614020227599</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="X35" t="n">
-        <v>583.2614020227599</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="Y35" t="n">
-        <v>393.8416170062751</v>
+        <v>750.1023486652797</v>
       </c>
     </row>
     <row r="36">
@@ -7017,43 +7017,43 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K36" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024216</v>
       </c>
       <c r="L36" t="n">
         <v>183.5548280772649</v>
       </c>
       <c r="M36" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N36" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O36" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P36" t="n">
-        <v>739.5989987017061</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q36" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R36" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S36" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T36" t="n">
-        <v>750.1023486652796</v>
+        <v>583.26140202276</v>
       </c>
       <c r="U36" t="n">
-        <v>560.6825636487948</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="V36" t="n">
-        <v>371.2627786323101</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="W36" t="n">
-        <v>181.8429936158253</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X36" t="n">
         <v>15.00204697330559</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C37" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D37" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E37" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F37" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G37" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H37" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I37" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J37" t="n">
-        <v>29.24882464404147</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K37" t="n">
         <v>15.00204697330559</v>
@@ -7117,28 +7117,28 @@
         <v>67.74542702828987</v>
       </c>
       <c r="R37" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="S37" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="T37" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U37" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V37" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W37" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X37" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>204.4218319897903</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="C38" t="n">
-        <v>15.00204697330559</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="D38" t="n">
-        <v>15.00204697330559</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="E38" t="n">
-        <v>15.00204697330559</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="F38" t="n">
-        <v>15.00204697330559</v>
+        <v>520.5803211678656</v>
       </c>
       <c r="G38" t="n">
-        <v>15.00204697330559</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="H38" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I38" t="n">
         <v>15.00204697330559</v>
@@ -7178,46 +7178,46 @@
         <v>80.81213159058944</v>
       </c>
       <c r="L38" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079183</v>
       </c>
       <c r="M38" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N38" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O38" t="n">
-        <v>649.4845259985583</v>
+        <v>649.4845259985578</v>
       </c>
       <c r="P38" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020261</v>
       </c>
       <c r="Q38" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R38" t="n">
-        <v>750.1023486652798</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="S38" t="n">
-        <v>750.1023486652798</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="T38" t="n">
-        <v>750.1023486652798</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="U38" t="n">
-        <v>750.1023486652792</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="V38" t="n">
-        <v>750.1023486652792</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="W38" t="n">
-        <v>750.1023486652792</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="X38" t="n">
-        <v>583.2614020227596</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="Y38" t="n">
-        <v>393.8416170062749</v>
+        <v>672.2420264262249</v>
       </c>
     </row>
     <row r="39">
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="C39" t="n">
         <v>15.00204697330559</v>
@@ -7269,7 +7269,7 @@
         <v>649.2101578476348</v>
       </c>
       <c r="P39" t="n">
-        <v>739.5989987017058</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q39" t="n">
         <v>750.1023486652792</v>
@@ -7284,19 +7284,19 @@
         <v>750.1023486652792</v>
       </c>
       <c r="U39" t="n">
+        <v>750.1023486652792</v>
+      </c>
+      <c r="V39" t="n">
         <v>560.6825636487946</v>
       </c>
-      <c r="V39" t="n">
+      <c r="W39" t="n">
         <v>371.26277863231</v>
-      </c>
-      <c r="W39" t="n">
-        <v>181.8429936158253</v>
       </c>
       <c r="X39" t="n">
         <v>181.8429936158253</v>
       </c>
       <c r="Y39" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158253</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>750.1023486652792</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C40" t="n">
-        <v>750.1023486652792</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D40" t="n">
-        <v>750.1023486652792</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E40" t="n">
-        <v>750.1023486652792</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F40" t="n">
-        <v>697.3589686102951</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G40" t="n">
-        <v>697.3589686102951</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H40" t="n">
-        <v>697.3589686102951</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I40" t="n">
-        <v>697.3589686102951</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J40" t="n">
-        <v>697.3589686102951</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K40" t="n">
-        <v>697.3589686102951</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L40" t="n">
-        <v>709.3965921992913</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M40" t="n">
-        <v>725.3468614886966</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N40" t="n">
-        <v>748.7753949309528</v>
+        <v>66.41847329396333</v>
       </c>
       <c r="O40" t="n">
-        <v>750.1023486652792</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="P40" t="n">
-        <v>750.1023486652792</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="Q40" t="n">
-        <v>750.1023486652792</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="R40" t="n">
-        <v>750.1023486652792</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="S40" t="n">
-        <v>750.1023486652792</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="T40" t="n">
-        <v>750.1023486652792</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U40" t="n">
-        <v>750.1023486652792</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V40" t="n">
-        <v>750.1023486652792</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W40" t="n">
-        <v>750.1023486652792</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X40" t="n">
-        <v>750.1023486652792</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y40" t="n">
-        <v>750.1023486652792</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>393.8416170062753</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="C41" t="n">
-        <v>393.8416170062753</v>
+        <v>393.841617006275</v>
       </c>
       <c r="D41" t="n">
-        <v>204.4218319897904</v>
+        <v>393.841617006275</v>
       </c>
       <c r="E41" t="n">
-        <v>15.0020469733056</v>
+        <v>393.841617006275</v>
       </c>
       <c r="F41" t="n">
-        <v>15.0020469733056</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G41" t="n">
-        <v>15.0020469733056</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="H41" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I41" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J41" t="n">
-        <v>21.03371160678498</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K41" t="n">
-        <v>80.81213159058973</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L41" t="n">
-        <v>191.8743094079189</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M41" t="n">
-        <v>347.121819064476</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N41" t="n">
-        <v>509.4952041123833</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O41" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P41" t="n">
-        <v>734.4611726020267</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q41" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R41" t="n">
-        <v>672.2420264262256</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S41" t="n">
-        <v>583.2614020227601</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="T41" t="n">
-        <v>583.2614020227601</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="U41" t="n">
-        <v>583.2614020227601</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="V41" t="n">
-        <v>583.2614020227601</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="W41" t="n">
-        <v>583.2614020227601</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="X41" t="n">
-        <v>583.2614020227601</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="Y41" t="n">
-        <v>583.2614020227601</v>
+        <v>583.2614020227597</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>15.0020469733056</v>
+        <v>581.8870116452113</v>
       </c>
       <c r="C42" t="n">
-        <v>15.0020469733056</v>
+        <v>407.4339823640843</v>
       </c>
       <c r="D42" t="n">
-        <v>15.0020469733056</v>
+        <v>258.499572702833</v>
       </c>
       <c r="E42" t="n">
-        <v>15.0020469733056</v>
+        <v>99.26211769737751</v>
       </c>
       <c r="F42" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G42" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H42" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I42" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J42" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K42" t="n">
-        <v>67.13418877024215</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L42" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772647</v>
       </c>
       <c r="M42" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140242</v>
       </c>
       <c r="N42" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O42" t="n">
-        <v>649.2101578476351</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P42" t="n">
-        <v>739.5989987017065</v>
+        <v>739.5989987017059</v>
       </c>
       <c r="Q42" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R42" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S42" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="T42" t="n">
-        <v>583.2614020227601</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="U42" t="n">
-        <v>583.2614020227601</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="V42" t="n">
-        <v>393.8416170062753</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="W42" t="n">
-        <v>204.4218319897904</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="X42" t="n">
-        <v>204.4218319897904</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="Y42" t="n">
-        <v>15.0020469733056</v>
+        <v>750.1023486652794</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C43" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D43" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E43" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F43" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G43" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H43" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I43" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J43" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K43" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L43" t="n">
-        <v>27.03967056230177</v>
+        <v>27.03967056230172</v>
       </c>
       <c r="M43" t="n">
-        <v>42.98993985170717</v>
+        <v>42.9899398517071</v>
       </c>
       <c r="N43" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396325</v>
       </c>
       <c r="O43" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="P43" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="R43" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="S43" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="T43" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U43" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V43" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W43" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X43" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>371.2627786323102</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="C44" t="n">
-        <v>371.2627786323102</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="D44" t="n">
-        <v>371.2627786323102</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="E44" t="n">
-        <v>371.2627786323102</v>
+        <v>393.841617006275</v>
       </c>
       <c r="F44" t="n">
-        <v>204.4218319897904</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G44" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H44" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I44" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J44" t="n">
-        <v>21.03371160678497</v>
+        <v>21.03371160678524</v>
       </c>
       <c r="K44" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058967</v>
       </c>
       <c r="L44" t="n">
         <v>191.8743094079186</v>
       </c>
       <c r="M44" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N44" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O44" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985581</v>
       </c>
       <c r="P44" t="n">
-        <v>734.4611726020267</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q44" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R44" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S44" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="T44" t="n">
-        <v>560.6825636487951</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="U44" t="n">
-        <v>560.6825636487951</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="V44" t="n">
-        <v>560.6825636487951</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="W44" t="n">
-        <v>560.6825636487951</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="X44" t="n">
-        <v>560.6825636487951</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="Y44" t="n">
-        <v>371.2627786323102</v>
+        <v>583.2614020227597</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>181.8429936158253</v>
+        <v>338.3894859156838</v>
       </c>
       <c r="C45" t="n">
-        <v>181.8429936158253</v>
+        <v>163.9364566345569</v>
       </c>
       <c r="D45" t="n">
-        <v>181.8429936158253</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E45" t="n">
-        <v>22.60553861036985</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F45" t="n">
-        <v>22.60553861036985</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G45" t="n">
-        <v>22.60553861036985</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H45" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I45" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J45" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K45" t="n">
-        <v>67.13418877024215</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L45" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M45" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N45" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O45" t="n">
-        <v>649.2101578476351</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P45" t="n">
-        <v>739.5989987017065</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q45" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R45" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S45" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="T45" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="U45" t="n">
-        <v>560.6825636487951</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="V45" t="n">
-        <v>560.6825636487951</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="W45" t="n">
-        <v>371.2627786323102</v>
+        <v>371.26277863231</v>
       </c>
       <c r="X45" t="n">
-        <v>181.8429936158253</v>
+        <v>371.26277863231</v>
       </c>
       <c r="Y45" t="n">
-        <v>181.8429936158253</v>
+        <v>371.26277863231</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="C46" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="D46" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="E46" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="F46" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="G46" t="n">
-        <v>697.3589686102957</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="H46" t="n">
-        <v>697.3589686102957</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="I46" t="n">
-        <v>697.3589686102957</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="J46" t="n">
-        <v>697.3589686102957</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="K46" t="n">
-        <v>697.3589686102957</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="L46" t="n">
-        <v>709.3965921992919</v>
+        <v>709.3965921992914</v>
       </c>
       <c r="M46" t="n">
-        <v>725.3468614886973</v>
+        <v>725.3468614886967</v>
       </c>
       <c r="N46" t="n">
-        <v>748.7753949309534</v>
+        <v>748.7753949309529</v>
       </c>
       <c r="O46" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="P46" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="Q46" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R46" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S46" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="T46" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="U46" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="V46" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="W46" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="X46" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="Y46" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652794</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,10 +8134,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>45.86784710562524</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -8152,10 +8152,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>51.173501012562</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -8392,7 +8392,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8474,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8629,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8845,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9082,7 +9082,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>4.854053373819752</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9103,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9319,7 +9319,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -9340,7 +9340,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9556,7 +9556,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9577,7 +9577,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -9814,7 +9814,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10051,7 +10051,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10288,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10762,7 +10762,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10978,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11215,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -11236,7 +11236,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,7 +11452,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11473,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.9388346363559</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>304.8880345935582</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,13 +22559,13 @@
         <v>405.0277895336762</v>
       </c>
       <c r="G2" t="n">
-        <v>413.707320657778</v>
+        <v>363.9123136306533</v>
       </c>
       <c r="H2" t="n">
-        <v>323.1357392253592</v>
+        <v>273.3407321982345</v>
       </c>
       <c r="I2" t="n">
-        <v>148.9685811771479</v>
+        <v>99.17357415002326</v>
       </c>
       <c r="J2" t="n">
         <v>45.63689302957772</v>
@@ -22592,7 +22592,7 @@
         <v>50.01861771953256</v>
       </c>
       <c r="R2" t="n">
-        <v>115.3674336481769</v>
+        <v>49.65101377519441</v>
       </c>
       <c r="S2" t="n">
         <v>172.6645079492214</v>
@@ -22607,7 +22607,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>299.4459616902883</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22623,13 +22623,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116.7381766227427</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>122.9134919611911</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>103.5856233751473</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22644,7 +22644,7 @@
         <v>103.9912405093721</v>
       </c>
       <c r="I3" t="n">
-        <v>70.13228042782632</v>
+        <v>60.0065332792414</v>
       </c>
       <c r="J3" t="n">
         <v>46.18894706358476</v>
@@ -22671,7 +22671,7 @@
         <v>31.01751192697151</v>
       </c>
       <c r="R3" t="n">
-        <v>92.6799817290989</v>
+        <v>47.15831191777808</v>
       </c>
       <c r="S3" t="n">
         <v>155.8274931817798</v>
@@ -22680,19 +22680,19 @@
         <v>196.7240278659264</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8852226550407</v>
+        <v>182.0257804655493</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>183.0055801223006</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>201.8999761337949</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>155.9779781763528</v>
       </c>
       <c r="Y3" t="n">
-        <v>155.8876887501797</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22726,10 +22726,10 @@
         <v>133.9289553808794</v>
       </c>
       <c r="J4" t="n">
-        <v>76.39903162313584</v>
+        <v>42.76279030041251</v>
       </c>
       <c r="K4" t="n">
-        <v>45.86784710562524</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>28.48717608127421</v>
@@ -22744,10 +22744,10 @@
         <v>37.30279422357805</v>
       </c>
       <c r="P4" t="n">
-        <v>51.173501012562</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>91.57915019604307</v>
+        <v>26.23619181829162</v>
       </c>
       <c r="R4" t="n">
         <v>145.11520646895</v>
@@ -22793,16 +22793,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>314.2110964526092</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>331.8438870907846</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H5" t="n">
-        <v>227.9704273259875</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I5" t="n">
-        <v>46.89118423444745</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J5" t="n">
         <v>24.91528667358037</v>
@@ -22826,19 +22826,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>23.65357118422324</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>100.0310828299331</v>
+        <v>7.366133540830873</v>
       </c>
       <c r="S5" t="n">
-        <v>167.1010256612668</v>
+        <v>74.43607637216456</v>
       </c>
       <c r="T5" t="n">
-        <v>215.0431621354273</v>
+        <v>122.3782128463251</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1984878605957</v>
+        <v>193.2327717109778</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22863,7 +22863,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>80.04354969921354</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22878,13 +22878,13 @@
         <v>136.3592641379443</v>
       </c>
       <c r="H6" t="n">
-        <v>10.06468283495377</v>
+        <v>102.729632124056</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>55.50897386746508</v>
       </c>
       <c r="J6" t="n">
-        <v>17.86273395737652</v>
+        <v>33.84730027516773</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,7 +22908,7 @@
         <v>14.3427387906227</v>
       </c>
       <c r="R6" t="n">
-        <v>84.56947841277972</v>
+        <v>39.04780860145889</v>
       </c>
       <c r="S6" t="n">
         <v>153.4011028494393</v>
@@ -22920,16 +22920,16 @@
         <v>225.8766285924705</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>151.1812998155841</v>
       </c>
       <c r="W6" t="n">
         <v>159.0300338718174</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>113.1080359143753</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>113.0177464882022</v>
       </c>
     </row>
     <row r="7">
@@ -22963,7 +22963,7 @@
         <v>130.6355227555885</v>
       </c>
       <c r="J7" t="n">
-        <v>68.65627904547948</v>
+        <v>35.02003772275614</v>
       </c>
       <c r="K7" t="n">
         <v>33.14412614092828</v>
@@ -22984,7 +22984,7 @@
         <v>37.92808757638606</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.40871249605685</v>
+        <v>17.06575411830539</v>
       </c>
       <c r="R7" t="n">
         <v>140.1909870721275</v>
@@ -23030,16 +23030,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>308.1272147036787</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>301.2760442195641</v>
+        <v>413.3887043444878</v>
       </c>
       <c r="H8" t="n">
-        <v>207.7600497819524</v>
+        <v>319.8727099068761</v>
       </c>
       <c r="I8" t="n">
-        <v>24.57246563410428</v>
+        <v>136.685125759028</v>
       </c>
       <c r="J8" t="n">
         <v>18.59473170946464</v>
@@ -23063,22 +23063,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.61164031771682</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>95.3531516584621</v>
+        <v>29.63673178547965</v>
       </c>
       <c r="S8" t="n">
-        <v>165.4040387101212</v>
+        <v>53.29137858519758</v>
       </c>
       <c r="T8" t="n">
-        <v>214.717169359623</v>
+        <v>102.6045092346994</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1925302541847</v>
+        <v>139.0798701292611</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>244.615067749819</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23097,13 +23097,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54.42052352494363</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>35.33240543971505</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23115,10 +23115,10 @@
         <v>136.3194191323308</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>12.91829479440688</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>64.26286446312977</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,19 +23145,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.095592888813</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>152.6609993460486</v>
       </c>
       <c r="T9" t="n">
-        <v>191.1224613338147</v>
+        <v>196.0368949650912</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8740072105222</v>
+        <v>113.7613470855985</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>120.6879270245016</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23200,16 +23200,16 @@
         <v>129.630951895051</v>
       </c>
       <c r="J10" t="n">
-        <v>66.29456574971167</v>
+        <v>32.65832442698833</v>
       </c>
       <c r="K10" t="n">
-        <v>29.26310570632462</v>
+        <v>25.63772821752104</v>
       </c>
       <c r="L10" t="n">
         <v>7.238823902544752</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7157523946084789</v>
+        <v>4.341129883412066</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -23221,7 +23221,7 @@
         <v>33.88793923037925</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.61152319847201</v>
+        <v>14.26856482072056</v>
       </c>
       <c r="R10" t="n">
         <v>138.6889896488451</v>
@@ -23267,16 +23267,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>219.3504585753914</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>225.572246063738</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H11" t="n">
-        <v>129.3682389399022</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,13 +23303,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>213.4438810562068</v>
+        <v>96.60328892050916</v>
       </c>
       <c r="U11" t="n">
         <v>251.1692605650303</v>
@@ -23321,10 +23321,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121491</v>
       </c>
       <c r="Y11" t="n">
-        <v>346.5367185999335</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="12">
@@ -23343,7 +23343,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>58.40068696065697</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23352,13 +23352,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,13 +23382,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.9677730452076503</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S12" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T12" t="n">
-        <v>195.4095977920012</v>
+        <v>7.884010625681327</v>
       </c>
       <c r="U12" t="n">
         <v>225.8637684100909</v>
@@ -23397,10 +23397,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>64.16939599459954</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>18.24739803715741</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23434,13 +23434,13 @@
         <v>153.4336708318196</v>
       </c>
       <c r="I13" t="n">
-        <v>125.7072197708667</v>
+        <v>73.49127351643223</v>
       </c>
       <c r="J13" t="n">
-        <v>57.06999962825414</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K13" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,10 +23455,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q13" t="n">
-        <v>34.57770336425637</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R13" t="n">
         <v>132.8223696106904</v>
@@ -23492,22 +23492,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>228.9266036310675</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>167.1574544543629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>219.3504585753914</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>225.572246063738</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H14" t="n">
         <v>316.8938261062223</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>77.08171901666375</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>158.7758131900531</v>
@@ -23555,13 +23555,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>184.0684315413184</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121491</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="15">
@@ -23580,22 +23580,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>108.4574611464083</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>15.37922103265838</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,25 +23619,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.43289562846319</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U15" t="n">
-        <v>38.33818124377086</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V15" t="n">
-        <v>45.2749999831052</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>64.16939599459954</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>40.60044802738273</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23674,10 +23674,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J16" t="n">
-        <v>57.06999962825415</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,10 +23692,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.68604055159723</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R16" t="n">
         <v>132.8223696106904</v>
@@ -23704,7 +23704,7 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T16" t="n">
-        <v>171.5037272356656</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U16" t="n">
         <v>286.2650814934503</v>
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>217.5613044873861</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>177.7473046046877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>167.1574544543631</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G17" t="n">
         <v>225.5722460637381</v>
       </c>
       <c r="H17" t="n">
-        <v>316.8938261062223</v>
+        <v>277.1926060501025</v>
       </c>
       <c r="I17" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>77.08171901666375</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S17" t="n">
         <v>158.7758131900531</v>
@@ -23832,7 +23832,7 @@
         <v>58.90455890409149</v>
       </c>
       <c r="J18" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.03060314331833</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T18" t="n">
-        <v>195.4095977920012</v>
+        <v>30.23706061590673</v>
       </c>
       <c r="U18" t="n">
         <v>38.33818124377103</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310537</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459971</v>
       </c>
       <c r="X18" t="n">
-        <v>18.24739803715758</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>18.15710861098447</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23911,10 +23911,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J19" t="n">
-        <v>57.06999962825415</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K19" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23929,22 +23929,22 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q19" t="n">
-        <v>68.68604055159723</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R19" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S19" t="n">
-        <v>154.5643095410617</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T19" t="n">
         <v>223.7196734901001</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2650814934503</v>
+        <v>234.0491352390159</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,16 +23966,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>195.2082544971607</v>
+        <v>217.561304487386</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046876</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>194.4047829059419</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>77.08171901666378</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S20" t="n">
         <v>158.7758131900531</v>
@@ -24029,13 +24029,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>204.5585635023745</v>
+        <v>182.2055135121491</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="21">
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>87.34517819057078</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>72.4328956284632</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T21" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8637684100909</v>
+        <v>38.338181243771</v>
       </c>
       <c r="V21" t="n">
-        <v>45.27499998310537</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>192.3165434992461</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098444</v>
       </c>
     </row>
     <row r="22">
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>114.7859889482798</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H22" t="n">
         <v>153.4336708318196</v>
@@ -24148,7 +24148,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J22" t="n">
-        <v>57.06999962825418</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K22" t="n">
         <v>14.10430989402852</v>
@@ -24169,7 +24169,7 @@
         <v>18.10760906709386</v>
       </c>
       <c r="Q22" t="n">
-        <v>68.68604055159726</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R22" t="n">
         <v>132.8223696106904</v>
@@ -24181,7 +24181,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2650814934503</v>
+        <v>234.0491352390159</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24203,22 +24203,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>167.157454454363</v>
       </c>
       <c r="E23" t="n">
-        <v>375.5336460862203</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F23" t="n">
-        <v>219.3504585753915</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>225.5722460637381</v>
+        <v>247.9252960539634</v>
       </c>
       <c r="H23" t="n">
         <v>316.8938261062223</v>
@@ -24251,10 +24251,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>77.08171901666378</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T23" t="n">
         <v>213.4438810562068</v>
@@ -24269,7 +24269,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>182.2055135121491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24330,25 +24330,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>72.4328956284632</v>
+        <v>57.03060314331834</v>
       </c>
       <c r="S24" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U24" t="n">
-        <v>60.69123123399629</v>
+        <v>38.338181243771</v>
       </c>
       <c r="V24" t="n">
-        <v>45.27499998310532</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>64.16939599459965</v>
+        <v>64.16939599459968</v>
       </c>
       <c r="X24" t="n">
-        <v>18.24739803715752</v>
+        <v>18.24739803715755</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>127.6160339275029</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>114.7859889482798</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H25" t="n">
         <v>153.4336708318196</v>
@@ -24385,7 +24385,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J25" t="n">
-        <v>57.06999962825418</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K25" t="n">
         <v>14.10430989402852</v>
@@ -24406,7 +24406,7 @@
         <v>18.10760906709386</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.68604055159726</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R25" t="n">
         <v>132.8223696106904</v>
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046876</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24458,7 +24458,7 @@
         <v>225.5722460637381</v>
       </c>
       <c r="H26" t="n">
-        <v>129.3682389399024</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I26" t="n">
         <v>125.4713171199747</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S26" t="n">
         <v>158.7758131900531</v>
@@ -24503,13 +24503,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.1471204966228</v>
+        <v>221.0654014799591</v>
       </c>
     </row>
     <row r="27">
@@ -24567,25 +24567,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>72.4328956284632</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S27" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T27" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681327</v>
       </c>
       <c r="U27" t="n">
-        <v>38.338181243771</v>
+        <v>60.69123123399635</v>
       </c>
       <c r="V27" t="n">
         <v>45.27499998310535</v>
       </c>
       <c r="W27" t="n">
-        <v>86.522445984825</v>
+        <v>64.16939599459968</v>
       </c>
       <c r="X27" t="n">
-        <v>18.24739803715755</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24619,10 +24619,10 @@
         <v>153.4336708318196</v>
       </c>
       <c r="I28" t="n">
-        <v>73.49127351643223</v>
+        <v>73.49127351643232</v>
       </c>
       <c r="J28" t="n">
-        <v>57.06999962825418</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K28" t="n">
         <v>14.10430989402852</v>
@@ -24643,7 +24643,7 @@
         <v>18.10760906709386</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.68604055159726</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R28" t="n">
         <v>132.8223696106904</v>
@@ -24728,10 +24728,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>70.68499503062235</v>
       </c>
       <c r="T29" t="n">
-        <v>96.60328892050916</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U29" t="n">
         <v>251.1692605650303</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="30">
@@ -24756,16 +24756,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>119.4873381821467</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24777,10 +24777,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I30" t="n">
-        <v>58.90455890409149</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24810,19 +24810,19 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T30" t="n">
-        <v>7.884010625681327</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8637684100909</v>
+        <v>38.338181243771</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310535</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459968</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>40.60044802738287</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>114.7859889482798</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H31" t="n">
         <v>153.4336708318196</v>
@@ -24859,7 +24859,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J31" t="n">
-        <v>57.06999962825418</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K31" t="n">
         <v>14.10430989402852</v>
@@ -24880,7 +24880,7 @@
         <v>18.10760906709386</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.68604055159726</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R31" t="n">
         <v>132.8223696106904</v>
@@ -24889,7 +24889,7 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T31" t="n">
-        <v>223.7196734901001</v>
+        <v>171.5037272356657</v>
       </c>
       <c r="U31" t="n">
         <v>286.2650814934503</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>195.2082544971607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,16 +24926,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G32" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H32" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I32" t="n">
-        <v>119.0745931339332</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,10 +24962,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>77.08171901666378</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T32" t="n">
         <v>213.4438810562068</v>
@@ -24974,10 +24974,10 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>162.5797212940404</v>
       </c>
       <c r="W32" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>182.2055135121491</v>
@@ -24996,7 +24996,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>7.535961812221132</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25014,7 +25014,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I33" t="n">
-        <v>58.90455890409149</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J33" t="n">
         <v>15.37922103265839</v>
@@ -25041,13 +25041,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>72.4328956284632</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S33" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T33" t="n">
-        <v>30.23706061590673</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U33" t="n">
         <v>225.8637684100909</v>
@@ -25096,7 +25096,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J34" t="n">
-        <v>57.06999962825418</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K34" t="n">
         <v>14.10430989402852</v>
@@ -25117,7 +25117,7 @@
         <v>18.10760906709386</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.47009429716292</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R34" t="n">
         <v>132.8223696106904</v>
@@ -25132,7 +25132,7 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>199.9216970693936</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25151,22 +25151,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>195.2082544971607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>167.1574544543631</v>
+        <v>189.5105044445884</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G35" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H35" t="n">
         <v>316.8938261062223</v>
@@ -25199,13 +25199,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>77.08171901666378</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S35" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T35" t="n">
-        <v>48.27134388011225</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U35" t="n">
         <v>251.1692605650303</v>
@@ -25220,7 +25220,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25251,7 +25251,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I36" t="n">
-        <v>58.90455890409149</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J36" t="n">
         <v>15.37922103265839</v>
@@ -25278,25 +25278,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>72.4328956284632</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S36" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T36" t="n">
-        <v>195.4095977920013</v>
+        <v>30.23706061590673</v>
       </c>
       <c r="U36" t="n">
-        <v>38.33818124377103</v>
+        <v>38.338181243771</v>
       </c>
       <c r="V36" t="n">
-        <v>45.27499998310537</v>
+        <v>45.27499998310535</v>
       </c>
       <c r="W36" t="n">
-        <v>64.16939599459971</v>
+        <v>64.16939599459968</v>
       </c>
       <c r="X36" t="n">
-        <v>40.60044802738295</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25333,10 +25333,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J37" t="n">
-        <v>18.95836326784827</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25354,10 +25354,10 @@
         <v>18.10760906709386</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.68604055159726</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R37" t="n">
-        <v>132.8223696106904</v>
+        <v>80.60642335625595</v>
       </c>
       <c r="S37" t="n">
         <v>206.7802557954962</v>
@@ -25388,10 +25388,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>195.2082544971608</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>177.7473046046877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25400,16 +25400,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>256.7309575359357</v>
       </c>
       <c r="G38" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H38" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399025</v>
       </c>
       <c r="I38" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>158.7758131900531</v>
@@ -25454,10 +25454,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>204.5585635023746</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>198.7123514897338</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25470,7 +25470,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>7.535961812221245</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25524,7 +25524,7 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U39" t="n">
-        <v>38.33818124377112</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V39" t="n">
         <v>45.27499998310546</v>
@@ -25533,10 +25533,10 @@
         <v>64.1693959945998</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715767</v>
       </c>
       <c r="Y39" t="n">
-        <v>40.51015860120987</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25558,7 +25558,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2051017684969</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.0019352027142</v>
@@ -25570,7 +25570,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J40" t="n">
-        <v>57.06999962825418</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K40" t="n">
         <v>14.10430989402852</v>
@@ -25591,7 +25591,7 @@
         <v>18.10760906709386</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.68604055159726</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R40" t="n">
         <v>132.8223696106904</v>
@@ -25600,7 +25600,7 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T40" t="n">
-        <v>223.7196734901001</v>
+        <v>171.5037272356657</v>
       </c>
       <c r="U40" t="n">
         <v>286.2650814934503</v>
@@ -25625,25 +25625,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>195.2082544971606</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046877</v>
       </c>
       <c r="D41" t="n">
-        <v>167.157454454363</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>194.4047829059418</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G41" t="n">
         <v>413.097833230058</v>
       </c>
       <c r="H41" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399025</v>
       </c>
       <c r="I41" t="n">
         <v>125.4713171199747</v>
@@ -25673,10 +25673,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S41" t="n">
-        <v>70.68499503062223</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T41" t="n">
         <v>213.4438810562068</v>
@@ -25688,7 +25688,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>184.0684315413186</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,19 +25704,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>61.65174237655268</v>
       </c>
       <c r="G42" t="n">
         <v>136.1637893657753</v>
@@ -25725,10 +25725,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I42" t="n">
-        <v>58.90455890409149</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J42" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S42" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T42" t="n">
-        <v>30.23706061590661</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U42" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V42" t="n">
-        <v>45.27499998310529</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>64.16939599459963</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>18.15710861098438</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25807,10 +25807,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J43" t="n">
-        <v>57.06999962825418</v>
+        <v>23.43375830553086</v>
       </c>
       <c r="K43" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25825,13 +25825,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q43" t="n">
-        <v>34.57770336425669</v>
+        <v>3.343082173845815</v>
       </c>
       <c r="R43" t="n">
-        <v>132.8223696106904</v>
+        <v>80.6064233562561</v>
       </c>
       <c r="S43" t="n">
         <v>206.7802557954962</v>
@@ -25871,13 +25871,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F44" t="n">
-        <v>241.7035085656169</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G44" t="n">
-        <v>225.572246063738</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H44" t="n">
         <v>316.8938261062223</v>
@@ -25910,13 +25910,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>77.08171901666378</v>
+        <v>11.36529914368137</v>
       </c>
       <c r="S44" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T44" t="n">
-        <v>25.9182938898868</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U44" t="n">
         <v>251.1692605650303</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>198.7123514897336</v>
+        <v>221.0654014799592</v>
       </c>
     </row>
     <row r="45">
@@ -25941,16 +25941,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>133.9886238604074</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25959,13 +25959,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H45" t="n">
-        <v>93.31430063004611</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I45" t="n">
-        <v>58.90455890409149</v>
+        <v>48.77881175550658</v>
       </c>
       <c r="J45" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>72.4328956284632</v>
+        <v>26.91122581714239</v>
       </c>
       <c r="S45" t="n">
         <v>149.7702446909496</v>
@@ -25998,16 +25998,16 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U45" t="n">
-        <v>38.33818124377095</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310543</v>
       </c>
       <c r="W45" t="n">
-        <v>64.16939599459963</v>
+        <v>64.16939599459977</v>
       </c>
       <c r="X45" t="n">
-        <v>18.2473980371575</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>114.7859889482798</v>
+        <v>114.78598894828</v>
       </c>
       <c r="H46" t="n">
         <v>153.4336708318196</v>
@@ -26044,10 +26044,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J46" t="n">
-        <v>57.06999962825418</v>
+        <v>23.43375830553086</v>
       </c>
       <c r="K46" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26062,10 +26062,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.68604055159726</v>
+        <v>3.343082173845815</v>
       </c>
       <c r="R46" t="n">
         <v>132.8223696106904</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>320248.5747079582</v>
+        <v>341764.7733430735</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>369458.4460828791</v>
+        <v>377744.6108087241</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>386540.1857915063</v>
+        <v>399851.6094672329</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>449927.0402889126</v>
+        <v>454717.4703244669</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>449927.0402889125</v>
+        <v>462029.612070785</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>449927.0402889123</v>
+        <v>454084.1666763322</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>449927.0402889125</v>
+        <v>466616.1718646389</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>449927.0402889126</v>
+        <v>463238.4639646389</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>449927.0402889126</v>
+        <v>466616.171864639</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>449927.0402889125</v>
+        <v>454835.4971147573</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>449927.0402889126</v>
+        <v>467367.5023030639</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>449927.0402889125</v>
+        <v>467367.5023030638</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>449927.0402889123</v>
+        <v>454084.1666763322</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>449927.0402889125</v>
+        <v>454084.1666763323</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>449927.0402889125</v>
+        <v>467367.5023030638</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94888.46658013568</v>
+        <v>99806.45483959056</v>
       </c>
       <c r="C2" t="n">
-        <v>109469.1692097419</v>
+        <v>111363.1497185065</v>
       </c>
       <c r="D2" t="n">
-        <v>114530.4254197055</v>
+        <v>117573.0365455858</v>
       </c>
       <c r="E2" t="n">
-        <v>133311.7156411592</v>
+        <v>134406.6710778573</v>
       </c>
       <c r="F2" t="n">
-        <v>133311.7156411592</v>
+        <v>136078.01776273</v>
       </c>
       <c r="G2" t="n">
-        <v>133311.7156411592</v>
+        <v>134261.9159582837</v>
       </c>
       <c r="H2" t="n">
-        <v>133311.7156411592</v>
+        <v>137126.3742870395</v>
       </c>
       <c r="I2" t="n">
-        <v>133311.7156411591</v>
+        <v>136354.3267670395</v>
       </c>
       <c r="J2" t="n">
-        <v>133311.7156411592</v>
+        <v>137126.3742870395</v>
       </c>
       <c r="K2" t="n">
-        <v>133311.7156411592</v>
+        <v>134433.6486299237</v>
       </c>
       <c r="L2" t="n">
-        <v>133311.7156411592</v>
+        <v>137298.1069586795</v>
       </c>
       <c r="M2" t="n">
-        <v>133311.7156411592</v>
+        <v>137298.1069586795</v>
       </c>
       <c r="N2" t="n">
-        <v>133311.7156411591</v>
+        <v>134261.9159582837</v>
       </c>
       <c r="O2" t="n">
-        <v>133311.7156411592</v>
+        <v>134261.9159582837</v>
       </c>
       <c r="P2" t="n">
-        <v>133311.7156411592</v>
+        <v>137298.1069586795</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>69152.13364531012</v>
       </c>
       <c r="D3" t="n">
-        <v>21905.62569575126</v>
+        <v>21905.62569575124</v>
       </c>
       <c r="E3" t="n">
-        <v>80646.21400928622</v>
+        <v>80646.21400928602</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>13028.564818605</v>
+        <v>13028.56481860501</v>
       </c>
       <c r="K3" t="n">
         <v>11033.35130008063</v>
       </c>
       <c r="L3" t="n">
-        <v>4922.040583148902</v>
+        <v>4922.040583148888</v>
       </c>
       <c r="M3" t="n">
-        <v>18793.20307042413</v>
+        <v>18793.20307042412</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.96378040239008</v>
+        <v>4948.952039857308</v>
       </c>
       <c r="C4" t="n">
-        <v>67.14558386063672</v>
+        <v>1961.126092625196</v>
       </c>
       <c r="D4" t="n">
-        <v>81.37067654131214</v>
+        <v>3123.981802421631</v>
       </c>
       <c r="E4" t="n">
-        <v>137.8001180723342</v>
+        <v>1232.755554770479</v>
       </c>
       <c r="F4" t="n">
-        <v>137.8001180723341</v>
+        <v>2904.102239643178</v>
       </c>
       <c r="G4" t="n">
-        <v>137.8001180723341</v>
+        <v>1088.000435196892</v>
       </c>
       <c r="H4" t="n">
-        <v>137.800118072334</v>
+        <v>3952.458763952653</v>
       </c>
       <c r="I4" t="n">
-        <v>137.800118072334</v>
+        <v>3180.411243952653</v>
       </c>
       <c r="J4" t="n">
-        <v>137.800118072334</v>
+        <v>3952.458763952653</v>
       </c>
       <c r="K4" t="n">
-        <v>137.800118072334</v>
+        <v>1259.733106836892</v>
       </c>
       <c r="L4" t="n">
-        <v>137.800118072334</v>
+        <v>4124.191435592654</v>
       </c>
       <c r="M4" t="n">
-        <v>137.800118072334</v>
+        <v>4124.191435592654</v>
       </c>
       <c r="N4" t="n">
-        <v>137.800118072334</v>
+        <v>1088.000435196892</v>
       </c>
       <c r="O4" t="n">
-        <v>137.800118072334</v>
+        <v>1088.000435196892</v>
       </c>
       <c r="P4" t="n">
-        <v>137.800118072334</v>
+        <v>4124.191435592654</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>49237.11966583622</v>
       </c>
       <c r="D5" t="n">
-        <v>50823.37311172271</v>
+        <v>50823.3731117227</v>
       </c>
       <c r="E5" t="n">
-        <v>23358.20041161359</v>
+        <v>23358.20041161357</v>
       </c>
       <c r="F5" t="n">
-        <v>23358.20041161358</v>
+        <v>23358.20041161357</v>
       </c>
       <c r="G5" t="n">
         <v>23358.20041161357</v>
@@ -26506,10 +26506,10 @@
         <v>23358.20041161356</v>
       </c>
       <c r="O5" t="n">
-        <v>23358.20041161358</v>
+        <v>23358.20041161356</v>
       </c>
       <c r="P5" t="n">
-        <v>23358.20041161358</v>
+        <v>23358.20041161356</v>
       </c>
     </row>
     <row r="6">
@@ -26522,13 +26522,13 @@
         <v>-349556.033042591</v>
       </c>
       <c r="C6" t="n">
-        <v>-8987.229685265062</v>
+        <v>-8987.22968526504</v>
       </c>
       <c r="D6" t="n">
-        <v>41720.05593569024</v>
+        <v>41720.05593569021</v>
       </c>
       <c r="E6" t="n">
-        <v>29169.5011021871</v>
+        <v>29169.50110218728</v>
       </c>
       <c r="F6" t="n">
         <v>109815.7151114733</v>
@@ -26546,22 +26546,22 @@
         <v>96787.15029286826</v>
       </c>
       <c r="K6" t="n">
-        <v>98782.36381139266</v>
+        <v>98782.36381139263</v>
       </c>
       <c r="L6" t="n">
         <v>104893.6745283244</v>
       </c>
       <c r="M6" t="n">
-        <v>91022.51204104911</v>
+        <v>91022.51204104914</v>
       </c>
       <c r="N6" t="n">
-        <v>109815.7151114732</v>
+        <v>109815.7151114733</v>
       </c>
       <c r="O6" t="n">
         <v>109815.7151114733</v>
       </c>
       <c r="P6" t="n">
-        <v>109815.7151114732</v>
+        <v>109815.7151114733</v>
       </c>
     </row>
   </sheetData>
@@ -26744,13 +26744,13 @@
         <v>476.1157511985022</v>
       </c>
       <c r="E3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="F3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="G3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="H3" t="n">
         <v>548.4699409129046</v>
@@ -26774,10 +26774,10 @@
         <v>548.4699409129046</v>
       </c>
       <c r="O3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="P3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
     </row>
     <row r="4">
@@ -26796,10 +26796,10 @@
         <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G4" t="n">
         <v>187.5255871663199</v>
@@ -26808,7 +26808,7 @@
         <v>187.5255871663199</v>
       </c>
       <c r="I4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="J4" t="n">
         <v>187.5255871663199</v>
@@ -26826,10 +26826,10 @@
         <v>187.5255871663198</v>
       </c>
       <c r="O4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="P4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26966,7 @@
         <v>18.52443243433669</v>
       </c>
       <c r="E3" t="n">
-        <v>72.35418971440259</v>
+        <v>72.35418971440237</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>42.86994226197751</v>
       </c>
       <c r="D4" t="n">
-        <v>19.44771083582151</v>
+        <v>19.44771083582145</v>
       </c>
       <c r="E4" t="n">
-        <v>75.41292704139636</v>
+        <v>75.41292704139627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>49.79500702712465</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="K4" t="n">
         <v>42.86994226197751</v>
       </c>
       <c r="L4" t="n">
-        <v>19.44771083582151</v>
+        <v>19.44771083582145</v>
       </c>
       <c r="M4" t="n">
-        <v>75.41292704139633</v>
+        <v>75.41292704139627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>42.86994226197751</v>
       </c>
       <c r="L4" t="n">
-        <v>19.44771083582151</v>
+        <v>19.44771083582145</v>
       </c>
       <c r="M4" t="n">
-        <v>75.41292704139636</v>
+        <v>75.41292704139627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31142,10 +31142,10 @@
         <v>181.136719110458</v>
       </c>
       <c r="O3" t="n">
-        <v>164.3536950713535</v>
+        <v>192.3912514715691</v>
       </c>
       <c r="P3" t="n">
-        <v>163.0046057545602</v>
+        <v>134.9670493543446</v>
       </c>
       <c r="Q3" t="n">
         <v>108.96426215905</v>
@@ -31367,7 +31367,7 @@
         <v>92.99032639149897</v>
       </c>
       <c r="K6" t="n">
-        <v>158.9352790843423</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>213.7080965605662</v>
@@ -31379,7 +31379,7 @@
         <v>224.0066613724355</v>
       </c>
       <c r="O6" t="n">
-        <v>173.959796357658</v>
+        <v>195.0536364676412</v>
       </c>
       <c r="P6" t="n">
         <v>187.9491588335306</v>
@@ -31610,10 +31610,10 @@
         <v>222.3595307837911</v>
       </c>
       <c r="M9" t="n">
-        <v>199.9629954989597</v>
+        <v>254.246694046942</v>
       </c>
       <c r="N9" t="n">
-        <v>243.454372208257</v>
+        <v>189.1706736602745</v>
       </c>
       <c r="O9" t="n">
         <v>243.6589731628788</v>
@@ -31753,46 +31753,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H11" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I11" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J11" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K11" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L11" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M11" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N11" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O11" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P11" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q11" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R11" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S11" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T11" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H12" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I12" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J12" t="n">
         <v>111.4584056340083</v>
@@ -31844,34 +31844,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L12" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M12" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N12" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O12" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P12" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R12" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S12" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T12" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31908,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H13" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I13" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J13" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K13" t="n">
         <v>114.9089482765069</v>
@@ -31932,25 +31932,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O13" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P13" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R13" t="n">
-        <v>44.47102176647912</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S13" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T13" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,13 +31990,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H14" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I14" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J14" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K14" t="n">
         <v>280.4720934528639</v>
@@ -32008,25 +32008,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N14" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O14" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P14" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q14" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R14" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S14" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T14" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U14" t="n">
         <v>0.1763923428061601</v>
@@ -32072,7 +32072,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I15" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J15" t="n">
         <v>111.4584056340083</v>
@@ -32081,16 +32081,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L15" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M15" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N15" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O15" t="n">
-        <v>280.6872536292677</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P15" t="n">
         <v>225.2762668628872</v>
@@ -32099,16 +32099,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R15" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S15" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T15" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32145,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H16" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I16" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J16" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K16" t="n">
         <v>114.9089482765069</v>
@@ -32175,19 +32175,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R16" t="n">
-        <v>44.47102176647911</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S16" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T16" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,13 +32227,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H17" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I17" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J17" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K17" t="n">
         <v>280.4720934528639</v>
@@ -32245,25 +32245,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N17" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O17" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P17" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q17" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R17" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S17" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T17" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U17" t="n">
         <v>0.1763923428061601</v>
@@ -32309,7 +32309,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I18" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J18" t="n">
         <v>111.4584056340083</v>
@@ -32318,16 +32318,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L18" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M18" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N18" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O18" t="n">
-        <v>280.687253629267</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P18" t="n">
         <v>225.2762668628872</v>
@@ -32336,16 +32336,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R18" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S18" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T18" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,16 +32382,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H19" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I19" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J19" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K19" t="n">
         <v>114.9089482765069</v>
@@ -32412,19 +32412,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R19" t="n">
-        <v>44.47102176647911</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S19" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T19" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32558,7 +32558,7 @@
         <v>256.1509851405032</v>
       </c>
       <c r="M21" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N21" t="n">
         <v>306.8275379829654</v>
@@ -32570,7 +32570,7 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q21" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R21" t="n">
         <v>73.24660833550075</v>
@@ -32807,7 +32807,7 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q24" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R24" t="n">
         <v>73.24660833550075</v>
@@ -33655,7 +33655,7 @@
         <v>85.00457245043118</v>
       </c>
       <c r="J35" t="n">
-        <v>187.1384950655541</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K35" t="n">
         <v>280.4720934528639</v>
@@ -33989,10 +33989,10 @@
         <v>280.6872536292673</v>
       </c>
       <c r="P39" t="n">
-        <v>225.2762668628868</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q39" t="n">
-        <v>150.5912184936715</v>
+        <v>150.591218493671</v>
       </c>
       <c r="R39" t="n">
         <v>73.24660833550075</v>
@@ -34120,31 +34120,31 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H41" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I41" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J41" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K41" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L41" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M41" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N41" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O41" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P41" t="n">
         <v>317.0679923244294</v>
@@ -34156,10 +34156,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S41" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T41" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U41" t="n">
         <v>0.1763923428061601</v>
@@ -34202,7 +34202,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H42" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I42" t="n">
         <v>40.6178210959085</v>
@@ -34211,16 +34211,16 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K42" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L42" t="n">
         <v>256.1509851405032</v>
       </c>
       <c r="M42" t="n">
-        <v>298.9161177975332</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N42" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O42" t="n">
         <v>280.6872536292673</v>
@@ -34229,19 +34229,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q42" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R42" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S42" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T42" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H43" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I43" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J43" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K43" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L43" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M43" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N43" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O43" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P43" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R43" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S43" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T43" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,31 +34357,31 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H44" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I44" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J44" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655546</v>
       </c>
       <c r="K44" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L44" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M44" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N44" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O44" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P44" t="n">
         <v>317.0679923244294</v>
@@ -34393,10 +34393,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S44" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T44" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U44" t="n">
         <v>0.1763923428061601</v>
@@ -34439,7 +34439,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H45" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I45" t="n">
         <v>40.6178210959085</v>
@@ -34448,7 +34448,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K45" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L45" t="n">
         <v>256.1509851405032</v>
@@ -34457,7 +34457,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N45" t="n">
-        <v>306.8275379829656</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O45" t="n">
         <v>280.6872536292673</v>
@@ -34466,19 +34466,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q45" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R45" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S45" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T45" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H46" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I46" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J46" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K46" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L46" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M46" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N46" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O46" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P46" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R46" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S46" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T46" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34790,10 +34790,10 @@
         <v>49.79500702712468</v>
       </c>
       <c r="O3" t="n">
-        <v>21.75745062690909</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="P3" t="n">
-        <v>29.03019834022993</v>
+        <v>0.9926419400143358</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>21.09384010998329</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>75.15371678069201</v>
@@ -35027,7 +35027,7 @@
         <v>92.6649492891022</v>
       </c>
       <c r="O6" t="n">
-        <v>31.36355191321351</v>
+        <v>52.45739202319677</v>
       </c>
       <c r="P6" t="n">
         <v>53.97475141920032</v>
@@ -35258,10 +35258,10 @@
         <v>83.8051510039169</v>
       </c>
       <c r="M9" t="n">
-        <v>57.82896157694136</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="N9" t="n">
-        <v>112.1126601249237</v>
+        <v>57.82896157694119</v>
       </c>
       <c r="O9" t="n">
         <v>101.0627287184343</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K11" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L11" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M11" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N11" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O11" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P11" t="n">
-        <v>85.83499656916001</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L12" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M12" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O12" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P12" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855698</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.60944440764994</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,16 +35571,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M13" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N13" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O13" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K14" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L14" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M14" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N14" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O14" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P14" t="n">
-        <v>85.83499656915996</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L15" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M15" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O15" t="n">
-        <v>138.0910091848233</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P15" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,16 +35808,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M16" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N16" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O16" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K17" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L17" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M17" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N17" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O17" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P17" t="n">
-        <v>85.83499656915996</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q17" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L18" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M18" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N18" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O18" t="n">
-        <v>138.0910091848226</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P18" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q18" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,16 +36045,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M19" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N19" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O19" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>117.596605360629</v>
       </c>
       <c r="M21" t="n">
-        <v>156.7820838755145</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N21" t="n">
         <v>175.4858258996321</v>
@@ -36218,7 +36218,7 @@
         <v>91.30185944855694</v>
       </c>
       <c r="Q21" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764994</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>91.30185944855694</v>
       </c>
       <c r="Q24" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764994</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>52.65872908781471</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L33" t="n">
         <v>117.596605360629</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>6.092590538867813</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K35" t="n">
         <v>60.38224240788333</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781471</v>
       </c>
       <c r="L36" t="n">
         <v>117.596605360629</v>
@@ -37637,10 +37637,10 @@
         <v>138.0910091848229</v>
       </c>
       <c r="P39" t="n">
-        <v>91.30185944855653</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q39" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764948</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K41" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L41" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M41" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N41" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O41" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P41" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q41" t="n">
-        <v>15.79916774065975</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L42" t="n">
         <v>117.596605360629</v>
       </c>
       <c r="M42" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N42" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O42" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P42" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q42" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,16 +37941,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M43" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N43" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O43" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868335</v>
       </c>
       <c r="K44" t="n">
-        <v>60.38224240788342</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L44" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M44" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N44" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O44" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P44" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q44" t="n">
-        <v>15.79916774065975</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L45" t="n">
         <v>117.596605360629</v>
@@ -38105,16 +38105,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N45" t="n">
-        <v>175.4858258996323</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O45" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P45" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q45" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765006</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,16 +38178,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M46" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N46" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O46" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
